--- a/contratos/contratos-7-2012.xlsx
+++ b/contratos/contratos-7-2012.xlsx
@@ -493,7 +493,7 @@
     <t>YLUM S.A.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>SORIA SILVINA BEATRIZ</t>
@@ -559,10 +559,10 @@
     <t>TOME SARA EVA GRACIELA</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>HOSIFA CONSTRUCTORA S.A.</t>
@@ -571,7 +571,7 @@
     <t>ELIZALDE OSVALDO Y ELIZALDE JORGE</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>BURGOS DANIEL RAUL</t>
@@ -949,370 +949,370 @@
     <t>140</t>
   </si>
   <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>3.214,60</t>
-  </si>
-  <si>
-    <t>406,42</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>58.800,00</t>
-  </si>
-  <si>
-    <t>7.109,80</t>
-  </si>
-  <si>
-    <t>203.325,11</t>
-  </si>
-  <si>
-    <t>2.534,50</t>
-  </si>
-  <si>
-    <t>12.749,37</t>
-  </si>
-  <si>
-    <t>9.613,66</t>
-  </si>
-  <si>
-    <t>761,00</t>
-  </si>
-  <si>
-    <t>8.913,23</t>
-  </si>
-  <si>
-    <t>426,19</t>
-  </si>
-  <si>
-    <t>41,16</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>2.882,64</t>
-  </si>
-  <si>
-    <t>423,50</t>
-  </si>
-  <si>
-    <t>5.608,26</t>
-  </si>
-  <si>
-    <t>80,91</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>9.962,26</t>
-  </si>
-  <si>
-    <t>860,00</t>
-  </si>
-  <si>
-    <t>30,44</t>
-  </si>
-  <si>
-    <t>800,46</t>
-  </si>
-  <si>
-    <t>3.506,00</t>
-  </si>
-  <si>
-    <t>5.796,00</t>
-  </si>
-  <si>
-    <t>685,11</t>
-  </si>
-  <si>
-    <t>2.354,40</t>
-  </si>
-  <si>
-    <t>68,50</t>
-  </si>
-  <si>
-    <t>482,62</t>
-  </si>
-  <si>
-    <t>2.420,00</t>
-  </si>
-  <si>
-    <t>4.463,00</t>
-  </si>
-  <si>
-    <t>7.507,71</t>
-  </si>
-  <si>
-    <t>36,88</t>
-  </si>
-  <si>
-    <t>1.450,00</t>
-  </si>
-  <si>
-    <t>287,84</t>
-  </si>
-  <si>
-    <t>1.458,00</t>
-  </si>
-  <si>
-    <t>4.040,00</t>
-  </si>
-  <si>
-    <t>1.243,00</t>
-  </si>
-  <si>
-    <t>1.598,00</t>
-  </si>
-  <si>
-    <t>259,54</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>3.535,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>4.300,00</t>
-  </si>
-  <si>
-    <t>23.004,00</t>
-  </si>
-  <si>
-    <t>2.439,00</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>84,00</t>
-  </si>
-  <si>
-    <t>0,20</t>
-  </si>
-  <si>
-    <t>144.870,00</t>
-  </si>
-  <si>
-    <t>296,62</t>
-  </si>
-  <si>
-    <t>9,00</t>
-  </si>
-  <si>
-    <t>335,00</t>
-  </si>
-  <si>
-    <t>514,00</t>
-  </si>
-  <si>
-    <t>49,80</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>1.607,64</t>
-  </si>
-  <si>
-    <t>7.673,00</t>
-  </si>
-  <si>
-    <t>3.102,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>4.796,44</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>249,37</t>
-  </si>
-  <si>
-    <t>1.535,50</t>
-  </si>
-  <si>
-    <t>9.300,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>18.033,60</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>4.650,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>586,54</t>
-  </si>
-  <si>
-    <t>151,84</t>
-  </si>
-  <si>
-    <t>5.980,00</t>
-  </si>
-  <si>
-    <t>18,10</t>
-  </si>
-  <si>
-    <t>154,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>273,42</t>
-  </si>
-  <si>
-    <t>71.721,00</t>
-  </si>
-  <si>
-    <t>2.862,45</t>
-  </si>
-  <si>
-    <t>366,50</t>
-  </si>
-  <si>
-    <t>559,29</t>
-  </si>
-  <si>
-    <t>153,80</t>
-  </si>
-  <si>
-    <t>1.171,41</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>698,00</t>
-  </si>
-  <si>
-    <t>4.746,27</t>
-  </si>
-  <si>
-    <t>4.293,79</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>45.866,00</t>
-  </si>
-  <si>
-    <t>830,00</t>
-  </si>
-  <si>
-    <t>1.012.479,35</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>1.320,00</t>
-  </si>
-  <si>
-    <t>402.800,00</t>
-  </si>
-  <si>
-    <t>34.000,00</t>
-  </si>
-  <si>
-    <t>454.109,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>403.650,00</t>
-  </si>
-  <si>
-    <t>417.968,00</t>
-  </si>
-  <si>
-    <t>414.000,00</t>
-  </si>
-  <si>
-    <t>412.048,00</t>
-  </si>
-  <si>
-    <t>380.000,00</t>
-  </si>
-  <si>
-    <t>183.272,80</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>46.870,00</t>
-  </si>
-  <si>
-    <t>13.006,68</t>
-  </si>
-  <si>
-    <t>80.160,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>67,00</t>
-  </si>
-  <si>
-    <t>223,00</t>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>3214.60</t>
+  </si>
+  <si>
+    <t>406.42</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>58800.00</t>
+  </si>
+  <si>
+    <t>7109.80</t>
+  </si>
+  <si>
+    <t>203325.11</t>
+  </si>
+  <si>
+    <t>2534.50</t>
+  </si>
+  <si>
+    <t>12749.37</t>
+  </si>
+  <si>
+    <t>9613.66</t>
+  </si>
+  <si>
+    <t>761.00</t>
+  </si>
+  <si>
+    <t>8913.23</t>
+  </si>
+  <si>
+    <t>426.19</t>
+  </si>
+  <si>
+    <t>41.16</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>2882.64</t>
+  </si>
+  <si>
+    <t>423.50</t>
+  </si>
+  <si>
+    <t>5608.26</t>
+  </si>
+  <si>
+    <t>80.91</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>9962.26</t>
+  </si>
+  <si>
+    <t>860.00</t>
+  </si>
+  <si>
+    <t>30.44</t>
+  </si>
+  <si>
+    <t>800.46</t>
+  </si>
+  <si>
+    <t>3506.00</t>
+  </si>
+  <si>
+    <t>5796.00</t>
+  </si>
+  <si>
+    <t>685.11</t>
+  </si>
+  <si>
+    <t>2354.40</t>
+  </si>
+  <si>
+    <t>68.50</t>
+  </si>
+  <si>
+    <t>482.62</t>
+  </si>
+  <si>
+    <t>2420.00</t>
+  </si>
+  <si>
+    <t>4463.00</t>
+  </si>
+  <si>
+    <t>7507.71</t>
+  </si>
+  <si>
+    <t>36.88</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>287.84</t>
+  </si>
+  <si>
+    <t>1458.00</t>
+  </si>
+  <si>
+    <t>4040.00</t>
+  </si>
+  <si>
+    <t>1243.00</t>
+  </si>
+  <si>
+    <t>1598.00</t>
+  </si>
+  <si>
+    <t>259.54</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>3535.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>23004.00</t>
+  </si>
+  <si>
+    <t>2439.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>144870.00</t>
+  </si>
+  <si>
+    <t>296.62</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>335.00</t>
+  </si>
+  <si>
+    <t>514.00</t>
+  </si>
+  <si>
+    <t>49.80</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>1607.64</t>
+  </si>
+  <si>
+    <t>7673.00</t>
+  </si>
+  <si>
+    <t>3102.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>4796.44</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>249.37</t>
+  </si>
+  <si>
+    <t>1535.50</t>
+  </si>
+  <si>
+    <t>9300.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>18033.60</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>586.54</t>
+  </si>
+  <si>
+    <t>151.84</t>
+  </si>
+  <si>
+    <t>5980.00</t>
+  </si>
+  <si>
+    <t>18.10</t>
+  </si>
+  <si>
+    <t>154.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>273.42</t>
+  </si>
+  <si>
+    <t>71721.00</t>
+  </si>
+  <si>
+    <t>2862.45</t>
+  </si>
+  <si>
+    <t>366.50</t>
+  </si>
+  <si>
+    <t>559.29</t>
+  </si>
+  <si>
+    <t>153.80</t>
+  </si>
+  <si>
+    <t>1171.41</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>698.00</t>
+  </si>
+  <si>
+    <t>4746.27</t>
+  </si>
+  <si>
+    <t>4293.79</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>45866.00</t>
+  </si>
+  <si>
+    <t>830.00</t>
+  </si>
+  <si>
+    <t>1012479.35</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>1320.00</t>
+  </si>
+  <si>
+    <t>402800.00</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>454109.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>403650.00</t>
+  </si>
+  <si>
+    <t>417968.00</t>
+  </si>
+  <si>
+    <t>414000.00</t>
+  </si>
+  <si>
+    <t>412048.00</t>
+  </si>
+  <si>
+    <t>380000.00</t>
+  </si>
+  <si>
+    <t>183272.80</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>46870.00</t>
+  </si>
+  <si>
+    <t>13006.68</t>
+  </si>
+  <si>
+    <t>80160.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>223.00</t>
   </si>
 </sst>
 </file>
